--- a/data/trans_dic/P37-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P37-Dificultad-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.160073882942547</v>
+        <v>0.161573191808369</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1273629175152379</v>
+        <v>0.129268962017324</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1262772148172231</v>
+        <v>0.1280357503942283</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2188962742641305</v>
+        <v>0.2193094729375641</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1791399220505434</v>
+        <v>0.1802564425668623</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1630112834568701</v>
+        <v>0.1656296518921344</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1462727504032702</v>
+        <v>0.1463621811883548</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.3131596967437598</v>
+        <v>0.3163941187992969</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1810456991335889</v>
+        <v>0.1796925496542535</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1532437035889192</v>
+        <v>0.1540112492549663</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1413563436948976</v>
+        <v>0.1434149924245478</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2795044593202493</v>
+        <v>0.281835095645693</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2253728796526031</v>
+        <v>0.2263681729651399</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.173218476270563</v>
+        <v>0.1744160351574812</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1687131414324051</v>
+        <v>0.1687257901361089</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2957889254494742</v>
+        <v>0.2965273191801984</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2321787994103608</v>
+        <v>0.2335096922626669</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2119348383052945</v>
+        <v>0.2141983917114398</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1923233276779605</v>
+        <v>0.1927805423009452</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3778790053537688</v>
+        <v>0.3807199415357421</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2216561336180875</v>
+        <v>0.2215086834853852</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1842911635597139</v>
+        <v>0.1858245806873967</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1741909004414866</v>
+        <v>0.1735380392162089</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.3298242012225884</v>
+        <v>0.3325520918237553</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.1657706489057061</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.3206156212518705</v>
+        <v>0.3206156212518704</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1202889719818933</v>
+        <v>0.1199072900144294</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1540487363521508</v>
+        <v>0.1544672427801736</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1201587793780521</v>
+        <v>0.1225757338014493</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2545307856704227</v>
+        <v>0.2549156186927632</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1381501465465352</v>
+        <v>0.1389044281006526</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1563248398408104</v>
+        <v>0.1548240477092573</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1601731394065263</v>
+        <v>0.1604044221500412</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.3296572485692576</v>
+        <v>0.3273169661407768</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1331418504123465</v>
+        <v>0.1346284864857116</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1634776786904949</v>
+        <v>0.1616402826082729</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1488862365245747</v>
+        <v>0.1494578087921737</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.3029123500940378</v>
+        <v>0.3012404139752207</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1603071473612648</v>
+        <v>0.160245735814672</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2053063603513197</v>
+        <v>0.2044146419612342</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1669381166656926</v>
+        <v>0.1668444081971707</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3147079322752415</v>
+        <v>0.3146181445764011</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1824790687910004</v>
+        <v>0.1823729721092572</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2060723530085685</v>
+        <v>0.2069129387588535</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2123745907728328</v>
+        <v>0.2107954518569037</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3778142867371969</v>
+        <v>0.3738721411640484</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1636672170576685</v>
+        <v>0.1637613549623478</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1976884467708835</v>
+        <v>0.1972841734955016</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.183884993046813</v>
+        <v>0.1852732128367587</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.3399494427722443</v>
+        <v>0.3386697891877933</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.09151769584630252</v>
+        <v>0.09148125812648795</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.167255436105859</v>
+        <v>0.164454508775871</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1385120158874927</v>
+        <v>0.1377242374511782</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3034402305880762</v>
+        <v>0.3047538231319704</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1047402114927745</v>
+        <v>0.1048095966632174</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1593484973656265</v>
+        <v>0.1571364765473756</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1271522445995888</v>
+        <v>0.1270990131224847</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.3480739666660271</v>
+        <v>0.3495241761162172</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1043421153781743</v>
+        <v>0.1043892605270888</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1701223080533846</v>
+        <v>0.1702448496218534</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1394538705466084</v>
+        <v>0.139500606092257</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.3356207957747147</v>
+        <v>0.3332156429313486</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1290329388028037</v>
+        <v>0.1307786693819107</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2230448905370201</v>
+        <v>0.2223098297381578</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1873951358953739</v>
+        <v>0.1904011794316997</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3652308247170619</v>
+        <v>0.3631184912524736</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1467061388625746</v>
+        <v>0.1465271976599168</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2105084337677939</v>
+        <v>0.2103383910792254</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1821236326530866</v>
+        <v>0.1816590490500141</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.4014221196206599</v>
+        <v>0.3981235567508202</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1325412945942935</v>
+        <v>0.1358983141397769</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2059423207856534</v>
+        <v>0.2088483586191863</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1771449379877784</v>
+        <v>0.1769870020755586</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.3748165781252779</v>
+        <v>0.3726660936527739</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.1928485385209186</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.3484031195284233</v>
+        <v>0.3484031195284232</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1005658857092839</v>
+        <v>0.1009647789123822</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1561890150079383</v>
+        <v>0.1541044942759522</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1608392651480035</v>
+        <v>0.1567758545159797</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.3075644624343969</v>
+        <v>0.3116632631357301</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.09584157824964495</v>
+        <v>0.09888574979822687</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1429493491156167</v>
+        <v>0.141989676303627</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1540187419991061</v>
+        <v>0.1544299403825557</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.3312402585338087</v>
+        <v>0.3342461149420445</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1092167171763823</v>
+        <v>0.1080307233069767</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1573068502796824</v>
+        <v>0.16118904805145</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1665507875282801</v>
+        <v>0.1697438338087173</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.3259878218556675</v>
+        <v>0.3263405041381303</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1656729739011181</v>
+        <v>0.1668250495427522</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2296944164613018</v>
+        <v>0.2301095155464049</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2325185731198653</v>
+        <v>0.2322213012650768</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3683889674117841</v>
+        <v>0.3722945672351917</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1729915740501251</v>
+        <v>0.1752814766577772</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2183781232384126</v>
+        <v>0.2170591854097175</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2311822773747865</v>
+        <v>0.2288582612161757</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3876923087409581</v>
+        <v>0.3880453955963813</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1563024166406136</v>
+        <v>0.1560411087975713</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.211403047725382</v>
+        <v>0.2133011437902759</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2191045074141644</v>
+        <v>0.2218090514950614</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.3691854240128006</v>
+        <v>0.3677355492343209</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1254832799499112</v>
+        <v>0.1262763963581394</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1629890590673409</v>
+        <v>0.1619390239198583</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.145034597289887</v>
+        <v>0.1447083623848121</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.295115885865855</v>
+        <v>0.2941904327380027</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1473020139752567</v>
+        <v>0.1461420368975861</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1696757655388976</v>
+        <v>0.1683497550314146</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1598141490720654</v>
+        <v>0.1593490391809871</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.3450927834319271</v>
+        <v>0.3448084814175793</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1399612123228854</v>
+        <v>0.1397556352536286</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1696630322221897</v>
+        <v>0.1695695711176216</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.155782883549109</v>
+        <v>0.1565692300520547</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.3241516106788261</v>
+        <v>0.3246811271552061</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.149856839958431</v>
+        <v>0.1495250509432754</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1890259801799256</v>
+        <v>0.189074570424914</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.169189433296951</v>
+        <v>0.1695362085881813</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3262584979000307</v>
+        <v>0.3278677194755913</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1707894403171079</v>
+        <v>0.1718669696997591</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1961763698193363</v>
+        <v>0.1966122068721602</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.187101649111818</v>
+        <v>0.188188313204849</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3709397859434611</v>
+        <v>0.3725948469237238</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1582265511170541</v>
+        <v>0.1570897349333776</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1893662685072121</v>
+        <v>0.1880016075649457</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1747772438647772</v>
+        <v>0.1741535135621634</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.3471523206220602</v>
+        <v>0.346191558807882</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>93370</v>
+        <v>94244</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>132959</v>
+        <v>134948</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>142440</v>
+        <v>144424</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>109172</v>
+        <v>109378</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>165227</v>
+        <v>166256</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>182561</v>
+        <v>185493</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>184239</v>
+        <v>184352</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>195280</v>
+        <v>197297</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>272587</v>
+        <v>270549</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>331598</v>
+        <v>333259</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>337496</v>
+        <v>342412</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>313693</v>
+        <v>316309</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>131458</v>
+        <v>132039</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>180829</v>
+        <v>182079</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>190308</v>
+        <v>190322</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>147521</v>
+        <v>147890</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>214146</v>
+        <v>215374</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>237352</v>
+        <v>239887</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>242243</v>
+        <v>242819</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>235638</v>
+        <v>237409</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>333731</v>
+        <v>333509</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>398781</v>
+        <v>402099</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>415891</v>
+        <v>414332</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>370168</v>
+        <v>373230</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>129659</v>
+        <v>129247</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>150202</v>
+        <v>150610</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>109203</v>
+        <v>111400</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>244384</v>
+        <v>244754</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>146099</v>
+        <v>146897</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>170893</v>
+        <v>169252</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>161210</v>
+        <v>161443</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>367848</v>
+        <v>365236</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>284315</v>
+        <v>287490</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>338108</v>
+        <v>334308</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>285162</v>
+        <v>286257</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>628842</v>
+        <v>625371</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>172794</v>
+        <v>172728</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>200180</v>
+        <v>199311</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>151718</v>
+        <v>151632</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>302163</v>
+        <v>302077</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>192979</v>
+        <v>192866</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>225276</v>
+        <v>226195</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>213750</v>
+        <v>212160</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>421584</v>
+        <v>417185</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>349500</v>
+        <v>349701</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>408864</v>
+        <v>408027</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>352195</v>
+        <v>354854</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>705730</v>
+        <v>703074</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>102646</v>
+        <v>102605</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>147542</v>
+        <v>145071</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>114101</v>
+        <v>113452</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>317544</v>
+        <v>318918</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>104105</v>
+        <v>104174</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>139557</v>
+        <v>137619</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>98042</v>
+        <v>98001</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>364657</v>
+        <v>366176</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>220739</v>
+        <v>220839</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>299063</v>
+        <v>299278</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>222404</v>
+        <v>222478</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>702831</v>
+        <v>697794</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>144723</v>
+        <v>146681</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>196755</v>
+        <v>196107</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>154368</v>
+        <v>156845</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>382206</v>
+        <v>379996</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>145817</v>
+        <v>145639</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>184362</v>
+        <v>184214</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>140428</v>
+        <v>140070</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>420547</v>
+        <v>417091</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>280396</v>
+        <v>287498</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>362032</v>
+        <v>367141</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>282514</v>
+        <v>282262</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>784911</v>
+        <v>780408</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>44881</v>
+        <v>45059</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>78567</v>
+        <v>77518</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>81497</v>
+        <v>79438</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>300161</v>
+        <v>304161</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>32609</v>
+        <v>33645</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>64718</v>
+        <v>64284</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>75423</v>
+        <v>75624</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>300849</v>
+        <v>303579</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>85902</v>
+        <v>84969</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>150347</v>
+        <v>154058</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>165951</v>
+        <v>169132</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>614220</v>
+        <v>614884</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>73937</v>
+        <v>74452</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>115542</v>
+        <v>115750</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>117817</v>
+        <v>117667</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>359521</v>
+        <v>363333</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>58859</v>
+        <v>59638</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>98868</v>
+        <v>98271</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>113209</v>
+        <v>112071</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>352122</v>
+        <v>352443</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>122936</v>
+        <v>122731</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>202050</v>
+        <v>203864</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>218315</v>
+        <v>221010</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>695612</v>
+        <v>692880</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>405194</v>
+        <v>407755</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>554834</v>
+        <v>551260</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>488372</v>
+        <v>487274</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>1027382</v>
+        <v>1024160</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>488167</v>
+        <v>484322</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>600932</v>
+        <v>596236</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>563631</v>
+        <v>561991</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>1275229</v>
+        <v>1274178</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>915783</v>
+        <v>914437</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>1178441</v>
+        <v>1177792</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>1073979</v>
+        <v>1079400</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>2326308</v>
+        <v>2330109</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>483897</v>
+        <v>482826</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>643467</v>
+        <v>643633</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>569709</v>
+        <v>570876</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>1135798</v>
+        <v>1141401</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>566005</v>
+        <v>569576</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>694788</v>
+        <v>696332</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>659869</v>
+        <v>663701</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>1370742</v>
+        <v>1376858</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>1035295</v>
+        <v>1027857</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>1315295</v>
+        <v>1305816</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>1204927</v>
+        <v>1200627</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>2491375</v>
+        <v>2484480</v>
       </c>
     </row>
     <row r="24">
